--- a/TE_D0001ログイン登録画面_詳細設計書.xlsx
+++ b/TE_D0001ログイン登録画面_詳細設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjdn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjdn\Desktop\笔记\设计书\ログイン画面詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D018C9D6-7646-4D50-AD62-0828AB4FF1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACB5FBB-76F4-4C23-8593-B6EE9C775386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="159" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="104">
   <si>
     <t>作成者</t>
   </si>
@@ -757,6 +757,10 @@
   <si>
     <t>登録</t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>埋字指非参数</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -2580,8 +2584,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1588545" y="10514257"/>
-          <a:ext cx="604220" cy="619013"/>
+          <a:off x="1589572" y="10554583"/>
+          <a:ext cx="604563" cy="629544"/>
           <a:chOff x="2339788" y="8453718"/>
           <a:chExt cx="600635" cy="609600"/>
         </a:xfrm>
@@ -3935,8 +3939,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3221916" y="6922992"/>
-          <a:ext cx="604221" cy="614083"/>
+          <a:off x="3223971" y="6925989"/>
+          <a:ext cx="604563" cy="613226"/>
           <a:chOff x="2339788" y="8453718"/>
           <a:chExt cx="600635" cy="609600"/>
         </a:xfrm>
@@ -4549,7 +4553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
@@ -5336,8 +5340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929CBE46-A1EE-4C1B-8B69-F53915D4965C}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
@@ -5462,7 +5466,7 @@
       <c r="K32" s="48"/>
       <c r="L32" s="66"/>
     </row>
-    <row r="33" spans="3:12" ht="18.75" customHeight="1">
+    <row r="33" spans="3:17" ht="18.75" customHeight="1">
       <c r="D33" s="97" t="s">
         <v>32</v>
       </c>
@@ -5476,23 +5480,26 @@
       <c r="J33" s="82"/>
       <c r="K33" s="82"/>
       <c r="L33" s="82"/>
-    </row>
-    <row r="35" spans="3:12" ht="18.75" customHeight="1">
+      <c r="Q33" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="3:17" ht="18.75" customHeight="1">
       <c r="D35" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="3:12" ht="18.75" customHeight="1">
+    <row r="37" spans="3:17" ht="18.75" customHeight="1">
       <c r="C37" s="26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="3:12" ht="18.75" customHeight="1">
+    <row r="45" spans="3:17" ht="18.75" customHeight="1">
       <c r="D45" s="26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="3:12" ht="18.75" customHeight="1">
+    <row r="46" spans="3:17" ht="18.75" customHeight="1">
       <c r="D46" s="26" t="s">
         <v>57</v>
       </c>
@@ -6598,7 +6605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D84DD3-8CF8-48AA-BBB4-2347FE6DB632}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="89" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -6860,8 +6867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
@@ -7202,8 +7209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C37496-30FA-4E4A-BC65-2930671DFA05}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
